--- a/ParametricGraph/BenchShevefeliaFunctionM.xlsx
+++ b/ParametricGraph/BenchShevefeliaFunctionM.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:S205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -433,7 +433,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2">
-        <v>9831</v>
+        <v>9832</v>
       </c>
       <c r="B2">
         <f>201*201</f>

--- a/ParametricGraph/BenchShevefeliaFunctionM.xlsx
+++ b/ParametricGraph/BenchShevefeliaFunctionM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -42,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -142,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,9 +182,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,6 +217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -383,14 +393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="4" width="12" customWidth="1"/>
@@ -403,7 +413,7 @@
     <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +441,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9832</v>
       </c>
@@ -443,12 +453,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -457,7 +467,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-10</v>
       </c>
@@ -465,7 +475,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-9.9</v>
       </c>
@@ -473,7 +483,7 @@
         <v>-9.9</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-9.8000000000000007</v>
       </c>
@@ -481,7 +491,7 @@
         <v>-9.8000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-9.6999999999999993</v>
       </c>
@@ -489,7 +499,7 @@
         <v>-9.6999999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-9.6</v>
       </c>
@@ -497,7 +507,7 @@
         <v>-9.6</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-9.5</v>
       </c>
@@ -505,7 +515,7 @@
         <v>-9.5</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-9.4</v>
       </c>
@@ -513,7 +523,7 @@
         <v>-9.4</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-9.3000000000000007</v>
       </c>
@@ -521,7 +531,7 @@
         <v>-9.3000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-9.1999999999999993</v>
       </c>
@@ -529,7 +539,7 @@
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-9.1</v>
       </c>
@@ -537,7 +547,7 @@
         <v>-9.1</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-9</v>
       </c>
@@ -545,7 +555,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-8.9</v>
       </c>
@@ -553,7 +563,7 @@
         <v>-8.9</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-8.8000000000000007</v>
       </c>
@@ -561,7 +571,7 @@
         <v>-8.8000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-8.6999999999999993</v>
       </c>
@@ -569,7 +579,7 @@
         <v>-8.6999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-8.6</v>
       </c>
@@ -577,7 +587,7 @@
         <v>-8.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-8.5000000000000107</v>
       </c>
@@ -585,7 +595,7 @@
         <v>-8.5000000000000107</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-8.4000000000000092</v>
       </c>
@@ -593,7 +603,7 @@
         <v>-8.4000000000000092</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-8.3000000000000096</v>
       </c>
@@ -601,7 +611,7 @@
         <v>-8.3000000000000096</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-8.2000000000000099</v>
       </c>
@@ -609,7 +619,7 @@
         <v>-8.2000000000000099</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-8.1000000000000103</v>
       </c>
@@ -617,7 +627,7 @@
         <v>-8.1000000000000103</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-8.0000000000000107</v>
       </c>
@@ -625,7 +635,7 @@
         <v>-8.0000000000000107</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-7.9000000000000101</v>
       </c>
@@ -633,7 +643,7 @@
         <v>-7.9000000000000101</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-7.8000000000000096</v>
       </c>
@@ -641,7 +651,7 @@
         <v>-7.8000000000000096</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-7.7000000000000099</v>
       </c>
@@ -649,7 +659,7 @@
         <v>-7.7000000000000099</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-7.6000000000000103</v>
       </c>
@@ -657,7 +667,7 @@
         <v>-7.6000000000000103</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-7.5000000000000098</v>
       </c>
@@ -665,7 +675,7 @@
         <v>-7.5000000000000098</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-7.4000000000000101</v>
       </c>
@@ -673,7 +683,7 @@
         <v>-7.4000000000000101</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-7.3000000000000096</v>
       </c>
@@ -681,7 +691,7 @@
         <v>-7.3000000000000096</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-7.2000000000000099</v>
       </c>
@@ -689,7 +699,7 @@
         <v>-7.2000000000000099</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-7.1000000000000103</v>
       </c>
@@ -697,7 +707,7 @@
         <v>-7.1000000000000103</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-7.0000000000000098</v>
       </c>
@@ -705,7 +715,7 @@
         <v>-7.0000000000000098</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-6.9000000000000101</v>
       </c>
@@ -713,7 +723,7 @@
         <v>-6.9000000000000101</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-6.8000000000000096</v>
       </c>
@@ -721,7 +731,7 @@
         <v>-6.8000000000000096</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-6.7000000000000099</v>
       </c>
@@ -729,7 +739,7 @@
         <v>-6.7000000000000099</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-6.6000000000000103</v>
       </c>
@@ -737,7 +747,7 @@
         <v>-6.6000000000000103</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-6.5000000000000098</v>
       </c>
@@ -745,7 +755,7 @@
         <v>-6.5000000000000098</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-6.4000000000000101</v>
       </c>
@@ -753,7 +763,7 @@
         <v>-6.4000000000000101</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-6.3000000000000096</v>
       </c>
@@ -761,7 +771,7 @@
         <v>-6.3000000000000096</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-6.2000000000000099</v>
       </c>
@@ -769,7 +779,7 @@
         <v>-6.2000000000000099</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-6.1000000000000103</v>
       </c>
@@ -777,7 +787,7 @@
         <v>-6.1000000000000103</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-6.0000000000000098</v>
       </c>
@@ -785,7 +795,7 @@
         <v>-6.0000000000000098</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-5.9000000000000101</v>
       </c>
@@ -793,7 +803,7 @@
         <v>-5.9000000000000101</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-5.8000000000000096</v>
       </c>
@@ -801,7 +811,7 @@
         <v>-5.8000000000000096</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-5.7000000000000197</v>
       </c>
@@ -809,7 +819,7 @@
         <v>-5.7000000000000197</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-5.6000000000000201</v>
       </c>
@@ -817,7 +827,7 @@
         <v>-5.6000000000000201</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-5.5000000000000204</v>
       </c>
@@ -825,7 +835,7 @@
         <v>-5.5000000000000204</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-5.4000000000000199</v>
       </c>
@@ -833,7 +843,7 @@
         <v>-5.4000000000000199</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-5.3000000000000203</v>
       </c>
@@ -841,7 +851,7 @@
         <v>-5.3000000000000203</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-5.2000000000000197</v>
       </c>
@@ -849,7 +859,7 @@
         <v>-5.2000000000000197</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-5.1000000000000201</v>
       </c>
@@ -857,7 +867,7 @@
         <v>-5.1000000000000201</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-5.0000000000000204</v>
       </c>
@@ -865,7 +875,7 @@
         <v>-5.0000000000000204</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-4.9000000000000199</v>
       </c>
@@ -873,7 +883,7 @@
         <v>-4.9000000000000199</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-4.8000000000000203</v>
       </c>
@@ -881,7 +891,7 @@
         <v>-4.8000000000000203</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-4.7000000000000197</v>
       </c>
@@ -889,7 +899,7 @@
         <v>-4.7000000000000197</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-4.6000000000000201</v>
       </c>
@@ -897,7 +907,7 @@
         <v>-4.6000000000000201</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-4.5000000000000204</v>
       </c>
@@ -905,7 +915,7 @@
         <v>-4.5000000000000204</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-4.4000000000000199</v>
       </c>
@@ -913,7 +923,7 @@
         <v>-4.4000000000000199</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-4.3000000000000203</v>
       </c>
@@ -921,7 +931,7 @@
         <v>-4.3000000000000203</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-4.2000000000000197</v>
       </c>
@@ -929,7 +939,7 @@
         <v>-4.2000000000000197</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-4.1000000000000201</v>
       </c>
@@ -937,7 +947,7 @@
         <v>-4.1000000000000201</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-4.0000000000000204</v>
       </c>
@@ -945,7 +955,7 @@
         <v>-4.0000000000000204</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-3.9000000000000199</v>
       </c>
@@ -953,7 +963,7 @@
         <v>-3.9000000000000199</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-3.8000000000000198</v>
       </c>
@@ -961,7 +971,7 @@
         <v>-3.8000000000000198</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-3.7000000000000202</v>
       </c>
@@ -969,7 +979,7 @@
         <v>-3.7000000000000202</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-3.6000000000000201</v>
       </c>
@@ -977,7 +987,7 @@
         <v>-3.6000000000000201</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-3.50000000000002</v>
       </c>
@@ -985,7 +995,7 @@
         <v>-3.50000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-3.4000000000000199</v>
       </c>
@@ -993,7 +1003,7 @@
         <v>-3.4000000000000199</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-3.3000000000000198</v>
       </c>
@@ -1001,7 +1011,7 @@
         <v>-3.3000000000000198</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-3.2000000000000202</v>
       </c>
@@ -1009,7 +1019,7 @@
         <v>-3.2000000000000202</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-3.1000000000000201</v>
       </c>
@@ -1017,7 +1027,7 @@
         <v>-3.1000000000000201</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-3.00000000000002</v>
       </c>
@@ -1025,7 +1035,7 @@
         <v>-3.00000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-2.9000000000000301</v>
       </c>
@@ -1033,7 +1043,7 @@
         <v>-2.9000000000000301</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-2.80000000000003</v>
       </c>
@@ -1041,7 +1051,7 @@
         <v>-2.80000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-2.7000000000000299</v>
       </c>
@@ -1049,7 +1059,7 @@
         <v>-2.7000000000000299</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-2.6000000000000298</v>
       </c>
@@ -1057,7 +1067,7 @@
         <v>-2.6000000000000298</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-2.5000000000000302</v>
       </c>
@@ -1065,7 +1075,7 @@
         <v>-2.5000000000000302</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-2.4000000000000301</v>
       </c>
@@ -1073,7 +1083,7 @@
         <v>-2.4000000000000301</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-2.30000000000003</v>
       </c>
@@ -1081,7 +1091,7 @@
         <v>-2.30000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-2.2000000000000299</v>
       </c>
@@ -1089,7 +1099,7 @@
         <v>-2.2000000000000299</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-2.1000000000000298</v>
       </c>
@@ -1097,7 +1107,7 @@
         <v>-2.1000000000000298</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-2.0000000000000302</v>
       </c>
@@ -1105,7 +1115,7 @@
         <v>-2.0000000000000302</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-1.9000000000000301</v>
       </c>
@@ -1113,7 +1123,7 @@
         <v>-1.9000000000000301</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-1.80000000000003</v>
       </c>
@@ -1121,7 +1131,7 @@
         <v>-1.80000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>-1.7000000000000299</v>
       </c>
@@ -1129,7 +1139,7 @@
         <v>-1.7000000000000299</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-1.6000000000000301</v>
       </c>
@@ -1137,7 +1147,7 @@
         <v>-1.6000000000000301</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>-1.50000000000003</v>
       </c>
@@ -1145,7 +1155,7 @@
         <v>-1.50000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-1.4000000000000301</v>
       </c>
@@ -1153,7 +1163,7 @@
         <v>-1.4000000000000301</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-1.30000000000003</v>
       </c>
@@ -1161,7 +1171,7 @@
         <v>-1.30000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-1.2000000000000299</v>
       </c>
@@ -1169,7 +1179,7 @@
         <v>-1.2000000000000299</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-1.1000000000000301</v>
       </c>
@@ -1177,7 +1187,7 @@
         <v>-1.1000000000000301</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>-1.00000000000003</v>
       </c>
@@ -1185,7 +1195,7 @@
         <v>-1.00000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>-0.900000000000031</v>
       </c>
@@ -1193,7 +1203,7 @@
         <v>-0.900000000000031</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-0.80000000000002902</v>
       </c>
@@ -1201,7 +1211,7 @@
         <v>-0.80000000000002902</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-0.70000000000002904</v>
       </c>
@@ -1209,7 +1219,7 @@
         <v>-0.70000000000002904</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-0.60000000000002995</v>
       </c>
@@ -1217,7 +1227,7 @@
         <v>-0.60000000000002995</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>-0.50000000000002998</v>
       </c>
@@ -1225,7 +1235,7 @@
         <v>-0.50000000000002998</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>-0.400000000000031</v>
       </c>
@@ -1233,7 +1243,7 @@
         <v>-0.400000000000031</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>-0.30000000000002902</v>
       </c>
@@ -1241,7 +1251,7 @@
         <v>-0.30000000000002902</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-0.20000000000002899</v>
       </c>
@@ -1249,7 +1259,7 @@
         <v>-0.20000000000002899</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-0.100000000000041</v>
       </c>
@@ -1257,7 +1267,7 @@
         <v>-0.100000000000041</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0</v>
       </c>
@@ -1265,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>9.9999999999999603E-2</v>
       </c>
@@ -1273,7 +1283,7 @@
         <v>9.9999999999999603E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0.19999999999999901</v>
       </c>
@@ -1281,7 +1291,7 @@
         <v>0.19999999999999901</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0.30000000000000099</v>
       </c>
@@ -1289,7 +1299,7 @@
         <v>0.30000000000000099</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0.4</v>
       </c>
@@ -1297,7 +1307,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0.5</v>
       </c>
@@ -1305,7 +1315,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0.6</v>
       </c>
@@ -1313,7 +1323,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0.69999999999999896</v>
       </c>
@@ -1321,7 +1331,7 @@
         <v>0.69999999999999896</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0.80000000000000104</v>
       </c>
@@ -1329,7 +1339,7 @@
         <v>0.80000000000000104</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0.9</v>
       </c>
@@ -1337,7 +1347,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -1345,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1.1000000000000001</v>
       </c>
@@ -1353,7 +1363,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1.2</v>
       </c>
@@ -1361,7 +1371,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1.3</v>
       </c>
@@ -1369,7 +1379,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1.4</v>
       </c>
@@ -1377,7 +1387,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1.5</v>
       </c>
@@ -1385,7 +1395,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1.6</v>
       </c>
@@ -1393,7 +1403,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1.7</v>
       </c>
@@ -1401,7 +1411,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1.8</v>
       </c>
@@ -1409,7 +1419,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1.9</v>
       </c>
@@ -1417,7 +1427,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
@@ -1425,7 +1435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2.1</v>
       </c>
@@ -1433,7 +1443,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2.2000000000000002</v>
       </c>
@@ -1441,7 +1451,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2.2999999999999998</v>
       </c>
@@ -1449,7 +1459,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2.4</v>
       </c>
@@ -1457,7 +1467,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2.5</v>
       </c>
@@ -1465,7 +1475,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2.6</v>
       </c>
@@ -1473,7 +1483,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2.7</v>
       </c>
@@ -1481,7 +1491,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2.8</v>
       </c>
@@ -1489,7 +1499,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2.9</v>
       </c>
@@ -1497,7 +1507,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>3</v>
       </c>
@@ -1505,7 +1515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3.1</v>
       </c>
@@ -1513,7 +1523,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>3.2</v>
       </c>
@@ -1521,7 +1531,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3.3</v>
       </c>
@@ -1529,7 +1539,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3.4</v>
       </c>
@@ -1537,7 +1547,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3.5</v>
       </c>
@@ -1545,7 +1555,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3.6</v>
       </c>
@@ -1553,7 +1563,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3.7</v>
       </c>
@@ -1561,7 +1571,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3.8</v>
       </c>
@@ -1569,7 +1579,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3.9</v>
       </c>
@@ -1577,7 +1587,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>4</v>
       </c>
@@ -1585,7 +1595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4.0999999999999002</v>
       </c>
@@ -1593,7 +1603,7 @@
         <v>4.0999999999999002</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>4.1999999999998998</v>
       </c>
@@ -1601,7 +1611,7 @@
         <v>4.1999999999998998</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>4.2999999999999003</v>
       </c>
@@ -1609,7 +1619,7 @@
         <v>4.2999999999999003</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4.3999999999999</v>
       </c>
@@ -1617,7 +1627,7 @@
         <v>4.3999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4.4999999999998996</v>
       </c>
@@ -1625,7 +1635,7 @@
         <v>4.4999999999998996</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>4.5999999999999002</v>
       </c>
@@ -1633,7 +1643,7 @@
         <v>4.5999999999999002</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>4.6999999999998998</v>
       </c>
@@ -1641,7 +1651,7 @@
         <v>4.6999999999998998</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>4.7999999999999003</v>
       </c>
@@ -1649,7 +1659,7 @@
         <v>4.7999999999999003</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>4.8999999999999</v>
       </c>
@@ -1657,7 +1667,7 @@
         <v>4.8999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>4.9999999999998996</v>
       </c>
@@ -1665,7 +1675,7 @@
         <v>4.9999999999998996</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>5.0999999999999002</v>
       </c>
@@ -1673,7 +1683,7 @@
         <v>5.0999999999999002</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>5.1999999999998998</v>
       </c>
@@ -1681,7 +1691,7 @@
         <v>5.1999999999998998</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>5.2999999999999003</v>
       </c>
@@ -1689,7 +1699,7 @@
         <v>5.2999999999999003</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>5.3999999999999</v>
       </c>
@@ -1697,7 +1707,7 @@
         <v>5.3999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>5.4999999999998996</v>
       </c>
@@ -1705,7 +1715,7 @@
         <v>5.4999999999998996</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>5.5999999999999002</v>
       </c>
@@ -1713,7 +1723,7 @@
         <v>5.5999999999999002</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>5.6999999999998998</v>
       </c>
@@ -1721,7 +1731,7 @@
         <v>5.6999999999998998</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>5.7999999999999003</v>
       </c>
@@ -1729,7 +1739,7 @@
         <v>5.7999999999999003</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>5.8999999999999</v>
       </c>
@@ -1737,7 +1747,7 @@
         <v>5.8999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>5.9999999999998996</v>
       </c>
@@ -1745,7 +1755,7 @@
         <v>5.9999999999998996</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6.0999999999999002</v>
       </c>
@@ -1753,7 +1763,7 @@
         <v>6.0999999999999002</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>6.1999999999998998</v>
       </c>
@@ -1761,7 +1771,7 @@
         <v>6.1999999999998998</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>6.2999999999999003</v>
       </c>
@@ -1769,7 +1779,7 @@
         <v>6.2999999999999003</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6.3999999999999</v>
       </c>
@@ -1777,7 +1787,7 @@
         <v>6.3999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>6.4999999999998996</v>
       </c>
@@ -1785,7 +1795,7 @@
         <v>6.4999999999998996</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>6.5999999999999002</v>
       </c>
@@ -1793,7 +1803,7 @@
         <v>6.5999999999999002</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6.6999999999998998</v>
       </c>
@@ -1801,7 +1811,7 @@
         <v>6.6999999999998998</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>6.7999999999999003</v>
       </c>
@@ -1809,7 +1819,7 @@
         <v>6.7999999999999003</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>6.8999999999999</v>
       </c>
@@ -1817,7 +1827,7 @@
         <v>6.8999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>6.9999999999998996</v>
       </c>
@@ -1825,7 +1835,7 @@
         <v>6.9999999999998996</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>7.0999999999999002</v>
       </c>
@@ -1833,7 +1843,7 @@
         <v>7.0999999999999002</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>7.1999999999998998</v>
       </c>
@@ -1841,7 +1851,7 @@
         <v>7.1999999999998998</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>7.2999999999999003</v>
       </c>
@@ -1849,7 +1859,7 @@
         <v>7.2999999999999003</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>7.3999999999999</v>
       </c>
@@ -1857,7 +1867,7 @@
         <v>7.3999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>7.4999999999998996</v>
       </c>
@@ -1865,7 +1875,7 @@
         <v>7.4999999999998996</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>7.5999999999999002</v>
       </c>
@@ -1873,7 +1883,7 @@
         <v>7.5999999999999002</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>7.6999999999998998</v>
       </c>
@@ -1881,7 +1891,7 @@
         <v>7.6999999999998998</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>7.7999999999999003</v>
       </c>
@@ -1889,7 +1899,7 @@
         <v>7.7999999999999003</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>7.8999999999999</v>
       </c>
@@ -1897,7 +1907,7 @@
         <v>7.8999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>7.9999999999998996</v>
       </c>
@@ -1905,7 +1915,7 @@
         <v>7.9999999999998996</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8.0999999999999002</v>
       </c>
@@ -1913,7 +1923,7 @@
         <v>8.0999999999999002</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>8.1999999999998998</v>
       </c>
@@ -1921,7 +1931,7 @@
         <v>8.1999999999998998</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>8.2999999999998995</v>
       </c>
@@ -1929,7 +1939,7 @@
         <v>8.2999999999998995</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>8.3999999999999009</v>
       </c>
@@ -1937,7 +1947,7 @@
         <v>8.3999999999999009</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>8.4999999999999005</v>
       </c>
@@ -1945,7 +1955,7 @@
         <v>8.4999999999999005</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>8.5999999999999002</v>
       </c>
@@ -1953,7 +1963,7 @@
         <v>8.5999999999999002</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>8.6999999999998998</v>
       </c>
@@ -1961,7 +1971,7 @@
         <v>8.6999999999998998</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>8.7999999999998995</v>
       </c>
@@ -1969,7 +1979,7 @@
         <v>8.7999999999998995</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8.8999999999999009</v>
       </c>
@@ -1977,7 +1987,7 @@
         <v>8.8999999999999009</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>8.9999999999999005</v>
       </c>
@@ -1985,7 +1995,7 @@
         <v>8.9999999999999005</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>9.0999999999999002</v>
       </c>
@@ -1993,7 +2003,7 @@
         <v>9.0999999999999002</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>9.1999999999998998</v>
       </c>
@@ -2001,7 +2011,7 @@
         <v>9.1999999999998998</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>9.2999999999998995</v>
       </c>
@@ -2009,7 +2019,7 @@
         <v>9.2999999999998995</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>9.3999999999999009</v>
       </c>
@@ -2017,7 +2027,7 @@
         <v>9.3999999999999009</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>9.4999999999999005</v>
       </c>
@@ -2025,7 +2035,7 @@
         <v>9.4999999999999005</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>9.5999999999999002</v>
       </c>
@@ -2033,7 +2043,7 @@
         <v>9.5999999999999002</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>9.6999999999998998</v>
       </c>
@@ -2041,7 +2051,7 @@
         <v>9.6999999999998998</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>9.7999999999998995</v>
       </c>
@@ -2049,7 +2059,7 @@
         <v>9.7999999999998995</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>9.8999999999999009</v>
       </c>
@@ -2057,7 +2067,7 @@
         <v>9.8999999999999009</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>9.9999999999999005</v>
       </c>
@@ -2069,8 +2079,8 @@
   <conditionalFormatting sqref="E1:E3 D4:D9 E11:E1048576">
     <cfRule type="dataBar" priority="2">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2078,8 +2088,8 @@
   <conditionalFormatting sqref="F4:F9 G9">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2090,12 +2100,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -2103,12 +2113,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
